--- a/doc/ESP32-S3-HMI-V3/gpio-functions.xlsx
+++ b/doc/ESP32-S3-HMI-V3/gpio-functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\ESP32-S3-HMI-V3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Private\src\Cube\doc\ESP32-S3-HMI-V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DACD6D-0AF6-4219-BBB4-BF322CBC8362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A0110-EA75-4B22-8510-8EC534566D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28395" yWindow="1830" windowWidth="21660" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11790" yWindow="150" windowWidth="23070" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gpio-functions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="180">
   <si>
     <t>GPIO</t>
   </si>
@@ -569,11 +569,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -581,7 +581,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -589,7 +589,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -598,7 +598,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -607,7 +607,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -616,7 +616,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -624,7 +624,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -632,7 +632,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -640,7 +640,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -648,7 +648,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -657,7 +657,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -666,7 +666,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -674,7 +674,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -683,7 +683,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -691,7 +691,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -700,7 +700,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -709,7 +709,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -717,21 +717,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1086,48 +1086,48 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1143,7 +1143,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1441,31 +1441,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1"/>
+    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>26</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>27</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>28</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>29</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>30</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>31</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>32</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>33</v>
       </c>
@@ -3008,9 +3008,11 @@
       <c r="P32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="2:17">
+      <c r="Q32" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>34</v>
       </c>
@@ -3060,7 +3062,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="2:17">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>35</v>
       </c>
@@ -3110,7 +3112,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="2:17">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>36</v>
       </c>
@@ -3160,7 +3162,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="2:17">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>37</v>
       </c>
@@ -3210,7 +3212,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="2:17">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>38</v>
       </c>
@@ -3260,7 +3262,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="2:17">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>39</v>
       </c>
@@ -3310,7 +3312,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="2:17">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>40</v>
       </c>
@@ -3360,7 +3362,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="2:17">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>41</v>
       </c>
@@ -3410,7 +3412,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="2:17">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>42</v>
       </c>
@@ -3460,7 +3462,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="2:17">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>43</v>
       </c>
@@ -3510,7 +3512,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="2:17">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>44</v>
       </c>
@@ -3560,7 +3562,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="2:17">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>45</v>
       </c>
@@ -3610,7 +3612,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="2:17">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>46</v>
       </c>
@@ -3656,9 +3658,11 @@
       <c r="P45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="2:17">
+      <c r="Q45" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>47</v>
       </c>
@@ -3708,7 +3712,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="2:17">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>48</v>
       </c>
@@ -3758,7 +3762,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="2:17">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>164</v>
       </c>
@@ -3769,7 +3773,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="2:17">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>165</v>
       </c>
@@ -3780,7 +3784,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="2:17">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>166</v>
       </c>
@@ -3791,7 +3795,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="2:17">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>167</v>
       </c>
@@ -3802,7 +3806,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="2:17">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>168</v>
       </c>
@@ -3813,7 +3817,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="2:17">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>169</v>
       </c>
@@ -3824,7 +3828,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="2:17">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>170</v>
       </c>
@@ -3835,7 +3839,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="2:17">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>171</v>
       </c>
